--- a/application/download/pws_template/template_pws_neonatal_3.xlsx
+++ b/application/download/pws_template/template_pws_neonatal_3.xlsx
@@ -413,8 +413,6 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -437,53 +435,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -505,7 +458,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,8 +814,8 @@
   </sheetPr>
   <dimension ref="A1:AMK73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -844,12 +848,12 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
       <c r="ALY1"/>
       <c r="ALZ1"/>
       <c r="AMA1"/>
@@ -984,7 +988,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="Z5" s="34"/>
+      <c r="Z5" s="32"/>
       <c r="ALW5"/>
       <c r="ALX5"/>
       <c r="ALY5"/>
@@ -1034,54 +1038,54 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="51" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="53"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="61"/>
       <c r="ALS7"/>
       <c r="ALT7"/>
       <c r="ALU7"/>
@@ -1103,56 +1107,56 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="57" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="41" t="s">
         <v>22</v>
       </c>
       <c r="V8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="54" t="s">
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="58" t="s">
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="41" t="s">
         <v>22</v>
       </c>
       <c r="ALQ8"/>
@@ -1178,234 +1182,234 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="57" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57" t="s">
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="42" t="s">
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="43"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="42" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="57" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57" t="s">
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="59"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="42"/>
     </row>
     <row r="10" spans="1:1025" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57" t="s">
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57" t="s">
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57" t="s">
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="57" t="s">
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57" t="s">
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57" t="s">
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="51" t="s">
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="59"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="31" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="U11" s="60"/>
-      <c r="V11" s="36" t="s">
+      <c r="U11" s="43"/>
+      <c r="V11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="W11" s="36" t="s">
+      <c r="W11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="X11" s="36" t="s">
+      <c r="X11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="36" t="s">
+      <c r="Y11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Z11" s="36" t="s">
+      <c r="Z11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="36" t="s">
+      <c r="AA11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AB11" s="36" t="s">
+      <c r="AB11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AC11" s="36" t="s">
+      <c r="AC11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AD11" s="36" t="s">
+      <c r="AD11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AE11" s="36" t="s">
+      <c r="AE11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AF11" s="36" t="s">
+      <c r="AF11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AG11" s="36" t="s">
+      <c r="AG11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="36" t="s">
+      <c r="AH11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AI11" s="36" t="s">
+      <c r="AI11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AJ11" s="36" t="s">
+      <c r="AJ11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AK11" s="36" t="s">
+      <c r="AK11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AL11" s="36" t="s">
+      <c r="AL11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AM11" s="36" t="s">
+      <c r="AM11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AN11" s="60"/>
+      <c r="AN11" s="43"/>
       <c r="ALQ11"/>
       <c r="ALR11"/>
       <c r="ALS11"/>
@@ -1435,118 +1439,118 @@
       <c r="B12" s="26">
         <v>2</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="30">
         <v>79</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>80</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <v>81</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="30">
         <v>82</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="30">
         <v>83</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="30">
         <v>84</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="30">
         <v>85</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="30">
         <v>86</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="30">
         <v>87</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="30">
         <v>88</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="30">
         <v>89</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="30">
         <v>90</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="30">
         <v>91</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="30">
         <v>92</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="30">
         <v>93</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="30">
         <v>94</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="30">
         <v>95</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="30">
         <v>96</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="30">
         <v>97</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="30">
         <v>98</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W12" s="30">
         <v>99</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="30">
         <v>100</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="30">
         <v>101</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="30">
         <v>102</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA12" s="30">
         <v>103</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AB12" s="30">
         <v>104</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="30">
         <v>105</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="30">
         <v>106</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE12" s="30">
         <v>107</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AF12" s="30">
         <v>108</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AG12" s="30">
         <v>109</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH12" s="30">
         <v>110</v>
       </c>
-      <c r="AI12" s="32">
+      <c r="AI12" s="30">
         <v>111</v>
       </c>
-      <c r="AJ12" s="32">
+      <c r="AJ12" s="30">
         <v>112</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AK12" s="30">
         <v>113</v>
       </c>
-      <c r="AL12" s="32">
+      <c r="AL12" s="30">
         <v>114</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AM12" s="30">
         <v>115</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AN12" s="30">
         <v>116</v>
       </c>
       <c r="ALQ12"/>
@@ -1574,13 +1578,13 @@
     <row r="13" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -1598,20 +1602,20 @@
       <c r="X13" s="24"/>
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
       <c r="ALQ13"/>
       <c r="ALR13"/>
       <c r="ALS13"/>
@@ -1637,13 +1641,13 @@
     <row r="14" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -1661,20 +1665,20 @@
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
       <c r="ALQ14"/>
       <c r="ALR14"/>
       <c r="ALS14"/>
@@ -1700,13 +1704,13 @@
     <row r="15" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
@@ -1724,20 +1728,20 @@
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
       <c r="ALQ15"/>
       <c r="ALR15"/>
       <c r="ALS15"/>
@@ -1760,478 +1764,478 @@
       <c r="AMJ15"/>
       <c r="AMK15"/>
     </row>
-    <row r="16" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
-    </row>
-    <row r="17" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-    </row>
-    <row r="18" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="40"/>
-    </row>
-    <row r="19" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="40"/>
-    </row>
-    <row r="20" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-    </row>
-    <row r="21" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-    </row>
-    <row r="22" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="40"/>
-      <c r="AK22" s="40"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-    </row>
-    <row r="23" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="40"/>
-    </row>
-    <row r="24" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="40"/>
-    </row>
-    <row r="25" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="40"/>
-    </row>
-    <row r="26" spans="1:1025" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
+    <row r="16" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+    </row>
+    <row r="17" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+    </row>
+    <row r="18" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+    </row>
+    <row r="19" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+    </row>
+    <row r="20" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+    </row>
+    <row r="21" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+    </row>
+    <row r="22" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+    </row>
+    <row r="23" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+    </row>
+    <row r="24" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+    </row>
+    <row r="25" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+    </row>
+    <row r="26" spans="1:1025" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
     </row>
     <row r="27" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="28"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
@@ -2249,20 +2253,20 @@
       <c r="X27" s="24"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="24"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
       <c r="ALQ27"/>
       <c r="ALR27"/>
       <c r="ALS27"/>
@@ -2288,13 +2292,13 @@
     <row r="28" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
@@ -2312,20 +2316,20 @@
       <c r="X28" s="24"/>
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
       <c r="ALQ28"/>
       <c r="ALR28"/>
       <c r="ALS28"/>
@@ -2351,13 +2355,13 @@
     <row r="29" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
@@ -2375,20 +2379,20 @@
       <c r="X29" s="24"/>
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
       <c r="ALQ29"/>
       <c r="ALR29"/>
       <c r="ALS29"/>
@@ -2414,13 +2418,13 @@
     <row r="30" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="28"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -2438,20 +2442,20 @@
       <c r="X30" s="24"/>
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
       <c r="ALQ30"/>
       <c r="ALR30"/>
       <c r="ALS30"/>
@@ -2477,13 +2481,13 @@
     <row r="31" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
@@ -2501,20 +2505,20 @@
       <c r="X31" s="24"/>
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="33"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
       <c r="ALQ31"/>
       <c r="ALR31"/>
       <c r="ALS31"/>
@@ -2540,13 +2544,13 @@
     <row r="32" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -2564,20 +2568,20 @@
       <c r="X32" s="24"/>
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
       <c r="ALQ32"/>
       <c r="ALR32"/>
       <c r="ALS32"/>
@@ -2603,13 +2607,13 @@
     <row r="33" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
@@ -2627,20 +2631,20 @@
       <c r="X33" s="24"/>
       <c r="Y33" s="24"/>
       <c r="Z33" s="24"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
       <c r="ALQ33"/>
       <c r="ALR33"/>
       <c r="ALS33"/>
@@ -2666,13 +2670,13 @@
     <row r="34" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -2690,20 +2694,20 @@
       <c r="X34" s="24"/>
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
       <c r="ALQ34"/>
       <c r="ALR34"/>
       <c r="ALS34"/>
@@ -2731,13 +2735,13 @@
       <c r="B35" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
@@ -2755,20 +2759,20 @@
       <c r="X35" s="24"/>
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="33"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
       <c r="ALQ35"/>
       <c r="ALR35"/>
       <c r="ALS35"/>
@@ -2796,13 +2800,13 @@
       <c r="B36" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -2820,20 +2824,20 @@
       <c r="X36" s="24"/>
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
       <c r="ALQ36"/>
       <c r="ALR36"/>
       <c r="ALS36"/>
@@ -2857,17 +2861,17 @@
       <c r="AMK36"/>
     </row>
     <row r="37" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
@@ -2885,20 +2889,20 @@
       <c r="X37" s="24"/>
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
       <c r="ALQ37"/>
       <c r="ALR37"/>
       <c r="ALS37"/>
@@ -2922,159 +2926,159 @@
       <c r="AMK37"/>
     </row>
     <row r="38" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="31" t="str">
+      <c r="B38" s="45"/>
+      <c r="C38" s="29" t="str">
         <f t="shared" ref="C38:AN38" si="0">IF(SUM(C13:C37)=0,"-",SUM(C13:C37))</f>
         <v>-</v>
       </c>
-      <c r="D38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="E38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="G38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="H38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="I38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="J38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="K38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="M38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="N38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="O38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="P38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="Q38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="R38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="S38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="T38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="U38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="V38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="W38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="X38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="Y38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="Z38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AA38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AB38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AC38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AD38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AE38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AF38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AG38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AH38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AI38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AJ38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AK38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AL38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AM38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="AN38" s="39" t="str">
+      <c r="D38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="H38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="I38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="J38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="K38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="L38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="Q38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="R38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="S38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="U38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="V38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="W38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="X38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="Y38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="Z38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AA38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AB38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AC38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AD38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AE38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AF38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AG38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AH38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AI38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AJ38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AK38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AL38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AM38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="AN38" s="37" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
@@ -3509,6 +3513,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="V9:X10"/>
+    <mergeCell ref="Y9:AA10"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="V7:AN7"/>
+    <mergeCell ref="AB8:AM8"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AN8:AN11"/>
     <mergeCell ref="I9:N9"/>
     <mergeCell ref="O9:T9"/>
     <mergeCell ref="C7:U7"/>
@@ -3524,19 +3541,6 @@
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="I8:T8"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="V9:X10"/>
-    <mergeCell ref="Y9:AA10"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="V7:AN7"/>
-    <mergeCell ref="AB8:AM8"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AN8:AN11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
